--- a/接口文档/商品api/类目接口_商户端.xlsx
+++ b/接口文档/商品api/类目接口_商户端.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>商品类目接口
 版本：1.0
@@ -210,6 +210,9 @@
       </rPr>
       <t>,</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        "img_url":"http://img",</t>
   </si>
   <si>
     <r>
@@ -1606,10 +1609,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1672,11 +1675,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1689,35 +1699,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1740,28 +1730,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1776,8 +1752,38 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1785,7 +1791,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1798,12 +1804,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1862,7 +1865,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1874,19 +2003,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1904,96 +2021,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2006,37 +2033,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2170,11 +2173,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2197,73 +2265,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2275,10 +2278,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2287,16 +2290,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2306,116 +2309,116 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
@@ -2424,7 +2427,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2490,6 +2493,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2869,186 +2875,186 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="7" spans="7:14">
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
     </row>
     <row r="8" spans="7:14">
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
     </row>
     <row r="9" spans="7:14">
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
     </row>
     <row r="10" spans="7:14">
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
     </row>
     <row r="11" spans="7:14">
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
     </row>
     <row r="12" spans="7:14">
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
     </row>
     <row r="13" spans="7:14">
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
     </row>
     <row r="14" spans="7:14">
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" spans="7:14">
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
     </row>
     <row r="16" spans="7:14">
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" spans="7:14">
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
     </row>
     <row r="18" spans="7:14">
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
     </row>
     <row r="19" spans="7:14">
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
     </row>
     <row r="20" spans="7:14">
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
     </row>
     <row r="21" spans="7:14">
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
     </row>
     <row r="22" spans="7:14">
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
     </row>
     <row r="23" spans="7:14">
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
     </row>
     <row r="24" spans="7:14">
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3075,50 +3081,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="26">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="26">
+      <c r="A3" s="27">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="26">
+      <c r="A4" s="27">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="26">
+      <c r="A5" s="27">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="26">
+      <c r="A6" s="27">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3138,10 +3144,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -3268,20 +3274,21 @@
       </c>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" ht="13.5" spans="1:5">
+    <row r="14" spans="1:5">
       <c r="A14" s="22"/>
       <c r="B14" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" spans="2:5">
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="23"/>
       <c r="B15" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="20"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="21" t="s">
@@ -3305,33 +3312,34 @@
       <c r="B19" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="25"/>
-    </row>
-    <row r="20" ht="25.5" customHeight="1" spans="2:5">
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="25"/>
-    </row>
-    <row r="21" spans="2:5">
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" ht="25.5" customHeight="1" spans="2:5">
       <c r="B21" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="25"/>
-    </row>
-    <row r="22" ht="17.25" customHeight="1" spans="2:2">
+      <c r="E21" s="26"/>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" ht="21" customHeight="1" spans="2:2">
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" ht="17.25" customHeight="1" spans="2:2">
       <c r="B23" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" ht="21" customHeight="1" spans="2:2">
+      <c r="B24" s="21" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="21" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="25" spans="2:2">
@@ -3346,17 +3354,17 @@
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="21" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="21" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="21" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:2">
@@ -3386,12 +3394,12 @@
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="21" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="21" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="2:2">
@@ -3406,17 +3414,17 @@
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="21" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="21" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="21" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="2:2">
@@ -3446,12 +3454,12 @@
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="21" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="21" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="2:2">
@@ -3466,17 +3474,17 @@
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="21" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="21" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="21" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="2:2">
@@ -3506,12 +3514,12 @@
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="21" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="21" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="2:2">
@@ -3526,7 +3534,7 @@
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="21" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="2:2">
@@ -3566,12 +3574,12 @@
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="21" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="21" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="2:2">
@@ -3586,17 +3594,17 @@
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="21" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="21" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="2:2">
@@ -3626,12 +3634,12 @@
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="21" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="21" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="2:2">
@@ -3646,17 +3654,17 @@
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="21" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="21" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="21" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="2:2">
@@ -3681,12 +3689,17 @@
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="21" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="21" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3698,7 +3711,7 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="A6:A15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.117/api/catalog_edit/catalog" tooltip="http://192.168.1.117/api/catalog_edit/catalog"/>

--- a/接口文档/商品api/类目接口_商户端.xlsx
+++ b/接口文档/商品api/类目接口_商户端.xlsx
@@ -212,7 +212,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">        "img_url":"http://img",</t>
+    <t xml:space="preserve">        "imgUrl":"http://img",</t>
   </si>
   <si>
     <r>
@@ -1609,10 +1609,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1675,16 +1675,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1713,24 +1713,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1745,7 +1736,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1759,9 +1788,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1776,50 +1810,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1865,7 +1865,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1877,49 +1883,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1931,13 +1925,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1955,37 +1973,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1997,7 +1985,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2009,37 +2027,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2173,76 +2173,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2264,12 +2199,77 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2278,10 +2278,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2290,16 +2290,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2309,125 +2309,125 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2493,9 +2493,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2875,186 +2872,186 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="7" spans="7:14">
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="8" spans="7:14">
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
     </row>
     <row r="9" spans="7:14">
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="7:14">
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
     </row>
     <row r="11" spans="7:14">
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
     </row>
     <row r="12" spans="7:14">
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
     </row>
     <row r="13" spans="7:14">
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
     </row>
     <row r="14" spans="7:14">
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
     </row>
     <row r="15" spans="7:14">
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
     </row>
     <row r="16" spans="7:14">
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
     </row>
     <row r="17" spans="7:14">
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
     </row>
     <row r="18" spans="7:14">
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
     </row>
     <row r="19" spans="7:14">
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
     </row>
     <row r="20" spans="7:14">
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
     </row>
     <row r="21" spans="7:14">
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
     </row>
     <row r="22" spans="7:14">
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
     </row>
     <row r="23" spans="7:14">
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
     </row>
     <row r="24" spans="7:14">
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3081,50 +3078,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="27">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="27">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="27">
+      <c r="A6" s="26">
         <v>5</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3147,7 +3144,7 @@
   <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -3275,20 +3272,20 @@
       <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="22"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="23"/>
+    <row r="15" ht="13.5" spans="1:5">
+      <c r="A15" s="22"/>
       <c r="B15" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="21" t="s">
@@ -3318,19 +3315,19 @@
       <c r="B20" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="26"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" ht="25.5" customHeight="1" spans="2:5">
       <c r="B21" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="26"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="26"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" ht="17.25" customHeight="1" spans="2:2">
       <c r="B23" s="21" t="s">
